--- a/Solver for POJ_grove to storagev2.xlsx
+++ b/Solver for POJ_grove to storagev2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="0" windowWidth="23660" windowHeight="19680"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="52">
   <si>
     <t>Input Data</t>
   </si>
@@ -195,12 +195,6 @@
     <t>P07-S48</t>
   </si>
   <si>
-    <t>Tankers</t>
-  </si>
-  <si>
-    <t>Per Week</t>
-  </si>
-  <si>
     <t>POJ</t>
   </si>
   <si>
@@ -241,6 +235,9 @@
   </si>
   <si>
     <t>Percent ROJ</t>
+  </si>
+  <si>
+    <t>ORA FUTURES</t>
   </si>
 </sst>
 </file>
@@ -409,7 +406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="377">
+  <cellStyleXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -787,8 +784,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -812,22 +811,25 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="377">
+  <cellStyles count="379">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1016,6 +1018,7 @@
     <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1203,6 +1206,7 @@
     <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1554,7 +1558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1564,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M28" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1576,22 +1580,23 @@
     <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:14">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1724,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +1764,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1779,17 +1784,17 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:14">
       <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:14">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1808,20 +1813,8 @@
       <c r="K16" t="s">
         <v>14</v>
       </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1829,15 +1822,15 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <f>$C7+0.22*G7</f>
+        <f t="shared" ref="C17:E22" si="0">$C7+0.22*G7</f>
         <v>1419.6063618062331</v>
       </c>
       <c r="D17">
-        <f>$C7+0.22*H7</f>
+        <f t="shared" si="0"/>
         <v>1889.3063618062333</v>
       </c>
       <c r="E17">
-        <f>$C7+0.22*I7</f>
+        <f t="shared" si="0"/>
         <v>1575.1463618062332</v>
       </c>
       <c r="G17" t="s">
@@ -1846,230 +1839,183 @@
       <c r="H17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="29">
         <v>3990.96</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="29">
         <v>4583.1000000000004</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="29">
         <v>1132.1199999999999</v>
       </c>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="15">
-        <v>30</v>
-      </c>
-      <c r="O17">
-        <f>N17/2</f>
-        <v>15</v>
-      </c>
-      <c r="P17">
-        <f>MAX(O17-CEILING(SUM(C34:C39)/30,1),0)</f>
-        <v>15</v>
-      </c>
-      <c r="Q17">
-        <f>MAX(O17-CEILING(SUM(C34:C39)/30,1)-CEILING(SUM(D34:D39)/30,1),0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <f>$C8+0.22*G8</f>
+        <f t="shared" si="0"/>
         <v>1987.6160414897172</v>
       </c>
       <c r="D18">
-        <f>$C8+0.22*H8</f>
+        <f t="shared" si="0"/>
         <v>1477.6560414897174</v>
       </c>
       <c r="E18">
-        <f>$C8+0.22*I8</f>
+        <f t="shared" si="0"/>
         <v>1882.2360414897173</v>
       </c>
       <c r="H18" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="29">
         <v>726.09</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="29">
         <v>81.5</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="29">
         <v>2509.5100000000002</v>
       </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="15">
-        <v>22</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ref="O18:O19" si="0">N18/2</f>
-        <v>11</v>
-      </c>
-      <c r="P18">
-        <f>MAX(O18-CEILING(SUM(F34:F39)/30,1),0)</f>
-        <v>10</v>
-      </c>
-      <c r="Q18">
-        <f>MAX(P18-CEILING(SUM(F34:F39)/30,1)-CEILING(SUM(G34:G39)/30,1),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19">
-        <f>$C9+0.22*G9</f>
+        <f t="shared" si="0"/>
         <v>1793.5662631974949</v>
       </c>
       <c r="D19">
-        <f>$C9+0.22*H9</f>
+        <f t="shared" si="0"/>
         <v>1779.0462631974949</v>
       </c>
       <c r="E19">
-        <f>$C9+0.22*I9</f>
+        <f t="shared" si="0"/>
         <v>1766.5062631974947</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="29">
         <v>2981.41</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="29">
         <v>3546.4</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="29">
         <v>511.17</v>
       </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="15">
-        <v>70</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="P19">
-        <f>MAX(O19-CEILING(SUM(I34:I39)/30,1),0)</f>
-        <v>29</v>
-      </c>
-      <c r="Q19">
-        <f>MAX(P19-CEILING(SUM(I34:I39)/30,1)-CEILING(SUM(J34:J39)/30,1),0)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <f>$C10+0.22*G10</f>
+        <f t="shared" si="0"/>
         <v>1985.7245685136468</v>
       </c>
       <c r="D20">
-        <f>$C10+0.22*H10</f>
+        <f t="shared" si="0"/>
         <v>1494.4645685136466</v>
       </c>
       <c r="E20">
-        <f>$C10+0.22*I10</f>
+        <f t="shared" si="0"/>
         <v>1888.9245685136466</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <f>$C11+0.22*G11</f>
+        <f t="shared" si="0"/>
         <v>1562.7288055031072</v>
       </c>
       <c r="D21">
-        <f>$C11+0.22*H11</f>
+        <f t="shared" si="0"/>
         <v>2032.4288055031075</v>
       </c>
       <c r="E21">
-        <f>$C11+0.22*I11</f>
+        <f t="shared" si="0"/>
         <v>1718.2688055031074</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22">
-        <f>$C12+0.22*G12</f>
+        <f t="shared" si="0"/>
         <v>1682.6283998515037</v>
       </c>
       <c r="D22">
-        <f>$C12+0.22*H12</f>
+        <f t="shared" si="0"/>
         <v>2152.3283998515035</v>
       </c>
       <c r="E22">
-        <f>$C12+0.22*I12</f>
+        <f t="shared" si="0"/>
         <v>1838.1683998515036</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="22"/>
+      <c r="E31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="V31" s="21"/>
-      <c r="W31" s="22"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="M31" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="V31" s="26"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="31"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="C32" s="9" t="s">
         <v>11</v>
       </c>
@@ -2113,13 +2059,13 @@
       <c r="H33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="22" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="9" t="s">
@@ -2140,62 +2086,62 @@
       <c r="Q33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="23" t="s">
+      <c r="R33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S33" s="23" t="s">
+      <c r="S33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="T33" s="24" t="s">
+      <c r="T33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="U33" s="26" t="s">
+      <c r="U33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="V33" s="23" t="s">
+      <c r="V33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="W33" s="24" t="s">
+      <c r="W33" s="22" t="s">
         <v>14</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AJ33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -2272,11 +2218,11 @@
         <v>696.7</v>
       </c>
       <c r="X34" s="16">
-        <f>+SUM(C34:W34)</f>
+        <f>+SUM(C34:W34)-X31</f>
         <v>2814.2552678550974</v>
       </c>
       <c r="Y34">
-        <f>SUM(C34,D34,E34,M34,N34,L34)</f>
+        <f t="shared" ref="Y34:Y39" si="1">SUM(C34,D34,E34,M34,N34,L34)</f>
         <v>8.5803149185714744E-7</v>
       </c>
       <c r="Z34" s="17">
@@ -2399,51 +2345,51 @@
         <v>695.0001070609627</v>
       </c>
       <c r="Y35">
-        <f>SUM(C35,D35,E35,M35,N35,L35)</f>
+        <f t="shared" si="1"/>
         <v>3.4775184420965388E-7</v>
       </c>
       <c r="Z35" s="17">
-        <f t="shared" ref="Z35:Z39" si="1">Y35/X35*100</f>
+        <f t="shared" ref="Z35:Z39" si="2">Y35/X35*100</f>
         <v>5.0036228869120223E-8</v>
       </c>
       <c r="AA35">
-        <f t="shared" ref="AA35:AA39" si="2">SUM(F35,G35,H35,O35,P35,Q35)</f>
+        <f t="shared" ref="AA35:AA39" si="3">SUM(F35,G35,H35,O35,P35,Q35)</f>
         <v>500.00010671321093</v>
       </c>
       <c r="AB35" s="17">
-        <f t="shared" ref="AB35:AB39" si="3">AA35/X35*100</f>
+        <f t="shared" ref="AB35:AB39" si="4">AA35/X35*100</f>
         <v>71.942450315241885</v>
       </c>
       <c r="AC35">
-        <f t="shared" ref="AC35:AC39" si="4">SUM(K35,J35,I35,T35,S35,R35)</f>
+        <f t="shared" ref="AC35:AC39" si="5">SUM(K35,J35,I35,T35,S35,R35)</f>
         <v>0</v>
       </c>
       <c r="AD35" s="17">
-        <f t="shared" ref="AD35:AD39" si="5">AC35/X35*100</f>
+        <f t="shared" ref="AD35:AD39" si="6">AC35/X35*100</f>
         <v>0</v>
       </c>
       <c r="AE35" s="17">
-        <f t="shared" ref="AE35:AE39" si="6">U35</f>
+        <f t="shared" ref="AE35:AE39" si="7">U35</f>
         <v>0</v>
       </c>
       <c r="AF35" s="17">
-        <f t="shared" ref="AF35:AF39" si="7">AE35/X35*100</f>
+        <f t="shared" ref="AF35:AF39" si="8">AE35/X35*100</f>
         <v>0</v>
       </c>
       <c r="AG35" s="17">
-        <f t="shared" ref="AG35:AG39" si="8">V35</f>
+        <f t="shared" ref="AG35:AG39" si="9">V35</f>
         <v>194.99999999999997</v>
       </c>
       <c r="AH35" s="17">
-        <f t="shared" ref="AH35:AH39" si="9">AG35/X35*100</f>
+        <f t="shared" ref="AH35:AH39" si="10">AG35/X35*100</f>
         <v>28.057549634721902</v>
       </c>
       <c r="AI35" s="17">
-        <f t="shared" ref="AI35:AI39" si="10">W35</f>
+        <f t="shared" ref="AI35:AI39" si="11">W35</f>
         <v>0</v>
       </c>
       <c r="AJ35" s="17">
-        <f t="shared" ref="AJ35:AJ39" si="11">AI35/X35*100</f>
+        <f t="shared" ref="AJ35:AJ39" si="12">AI35/X35*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2518,55 +2464,55 @@
         <v>0</v>
       </c>
       <c r="X36" s="16">
-        <f t="shared" ref="X36:X39" si="12">+SUM(C36:W36)</f>
+        <f t="shared" ref="X36:X39" si="13">+SUM(C36:W36)</f>
         <v>175.00000042412435</v>
       </c>
       <c r="Y36">
-        <f>SUM(C36,D36,E36,M36,N36,L36)</f>
+        <f t="shared" si="1"/>
         <v>4.2412435297123352E-7</v>
       </c>
       <c r="Z36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4235677253905108E-7</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB36" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD36" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE36" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
       <c r="AF36" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>99.999999757643238</v>
       </c>
       <c r="AG36" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7763568394002505E-15</v>
       </c>
       <c r="AH36" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0150610486257881E-15</v>
       </c>
       <c r="AI36" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2641,55 +2587,55 @@
         <v>0</v>
       </c>
       <c r="X37" s="16">
+        <f t="shared" si="13"/>
+        <v>5.193192376129474E-7</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="5"/>
+        <v>5.193192376129474E-7</v>
+      </c>
+      <c r="AD37" s="17">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="AE37" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="17">
         <f t="shared" si="12"/>
-        <v>5.193192376129474E-7</v>
-      </c>
-      <c r="Y37">
-        <f>SUM(C37,D37,E37,M37,N37,L37)</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="4"/>
-        <v>5.193192376129474E-7</v>
-      </c>
-      <c r="AD37" s="17">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AE37" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="17">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2764,11 +2710,11 @@
         <v>0</v>
       </c>
       <c r="X38" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f>SUM(C38,D38,E38,M38,N38,L38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z38" s="17">
@@ -2776,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB38" s="17">
@@ -2784,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD38" s="17">
@@ -2792,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF38" s="17">
@@ -2800,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH38" s="17">
@@ -2808,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="17">
@@ -2887,55 +2833,55 @@
         <v>1.7763568394002505E-15</v>
       </c>
       <c r="X39" s="16">
+        <f t="shared" si="13"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="17">
+        <f t="shared" si="11"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="AJ39" s="17">
         <f t="shared" si="12"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-      <c r="Y39">
-        <f>SUM(C39,D39,E39,M39,N39,L39)</f>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="17">
-        <f t="shared" si="10"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-      <c r="AJ39" s="17">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
@@ -2958,22 +2904,19 @@
       <c r="O40" t="s">
         <v>14</v>
       </c>
-      <c r="U40">
-        <f>SUM(U34:U39)</f>
-        <v>175</v>
-      </c>
-      <c r="V40">
-        <f t="shared" ref="V40:W40" si="13">SUM(V34:V39)</f>
-        <v>194.99999999999997</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="13"/>
-        <v>696.7</v>
+      <c r="U40" t="s">
+        <v>12</v>
+      </c>
+      <c r="V40" t="s">
+        <v>13</v>
+      </c>
+      <c r="W40" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:36">
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <f>SUM(C34:C39)+SUM(F34:F39)+SUM(I34:I39)</f>
@@ -2988,7 +2931,7 @@
         <v>733.91450000000009</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M41">
         <f>SUM(L34:L39)+SUM(O34:O39)+SUM(R34:R39)</f>
@@ -3002,23 +2945,17 @@
         <f>SUM(N34:N39)+SUM(Q34:Q39)+SUM(T34:T39)</f>
         <v>986.73599999999988</v>
       </c>
-      <c r="X41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>14</v>
+      <c r="U41">
+        <f>SUM(U34:U39)</f>
+        <v>175</v>
+      </c>
+      <c r="V41">
+        <f>SUM(V34:V39)</f>
+        <v>194.99999999999997</v>
+      </c>
+      <c r="W41">
+        <f>SUM(W34:W39)</f>
+        <v>696.7</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -3040,32 +2977,14 @@
       <c r="O42" t="s">
         <v>17</v>
       </c>
+      <c r="U42" t="s">
+        <v>17</v>
+      </c>
+      <c r="V42" t="s">
+        <v>17</v>
+      </c>
       <c r="W42" t="s">
-        <v>3</v>
-      </c>
-      <c r="X42" s="16">
-        <f>Z34</f>
-        <v>3.0488758488177286E-8</v>
-      </c>
-      <c r="Y42" s="16">
-        <f>AB34</f>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="16">
-        <f>AD34</f>
-        <v>75.243894581424172</v>
-      </c>
-      <c r="AA42" s="16">
-        <f>AF34</f>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="16">
-        <f>AH34</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="16">
-        <f>AJ34</f>
-        <v>24.756105388087075</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -3080,7 +2999,7 @@
         <f>1.1*174.11</f>
         <v>191.52100000000004</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="24">
         <f>1.1*667.195</f>
         <v>733.91450000000009</v>
       </c>
@@ -3089,103 +3008,55 @@
       </c>
       <c r="M43">
         <f>SUM(M44:M45)</f>
-        <v>227.01999999999998</v>
+        <v>228.34</v>
       </c>
       <c r="N43">
         <f>SUM(N44:N45)</f>
-        <v>286.19399999999996</v>
+        <v>299.44</v>
       </c>
       <c r="O43">
         <f>SUM(O44:O45)</f>
-        <v>986.73599999999988</v>
-      </c>
-      <c r="W43" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="16">
-        <f>Z35</f>
-        <v>5.0036228869120223E-8</v>
-      </c>
-      <c r="Y43" s="16">
-        <f>AB35</f>
-        <v>71.942450315241885</v>
-      </c>
-      <c r="Z43" s="16">
-        <f>AD35</f>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="16">
-        <f>AF35</f>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="16">
-        <f>AH35</f>
-        <v>28.057549634721902</v>
-      </c>
-      <c r="AC43" s="16">
-        <f>AJ35</f>
-        <v>0</v>
-      </c>
+        <v>1042.49</v>
+      </c>
+      <c r="T43" t="s">
+        <v>18</v>
+      </c>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
     </row>
     <row r="44" spans="1:36">
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <f>C41+M41+U40</f>
+        <f>C41+M41+U41</f>
         <v>594.18987585950617</v>
       </c>
       <c r="D44">
-        <f>D41+N41+V40</f>
+        <f>D41+N41+V41</f>
         <v>672.71499999999776</v>
       </c>
-      <c r="E44" s="28">
-        <f>E41+O41+W40</f>
+      <c r="E44" s="25">
+        <f>E41+O41+W41</f>
         <v>2417.3505</v>
       </c>
       <c r="L44" t="s">
-        <v>50</v>
-      </c>
-      <c r="M44" s="15">
-        <f>125.59-21.87</f>
-        <v>103.72</v>
+        <v>48</v>
+      </c>
+      <c r="M44" s="30">
+        <f>125.59</f>
+        <v>125.59</v>
       </c>
       <c r="N44" s="15">
-        <f>146.92-43.75</f>
-        <v>103.16999999999999</v>
+        <f>146.92</f>
+        <v>146.91999999999999</v>
       </c>
       <c r="O44" s="15">
-        <f>555.66-153.12</f>
-        <v>402.53999999999996</v>
+        <f>555.66</f>
+        <v>555.66</v>
       </c>
       <c r="Q44" s="4"/>
-      <c r="W44" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="16">
-        <f>Z36</f>
-        <v>2.4235677253905108E-7</v>
-      </c>
-      <c r="Y44" s="16">
-        <f>AB36</f>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="16">
-        <f>AD36</f>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="16">
-        <f>AF36</f>
-        <v>99.999999757643238</v>
-      </c>
-      <c r="AB44" s="16">
-        <f>AH36</f>
-        <v>1.0150610486257881E-15</v>
-      </c>
-      <c r="AC44" s="16">
-        <f>AJ36</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="1:36">
       <c r="B45" t="s">
@@ -3201,46 +3072,19 @@
         <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M45" s="15">
-        <f>1.2*102.75</f>
-        <v>123.3</v>
+        <f>102.75</f>
+        <v>102.75</v>
       </c>
       <c r="N45" s="15">
-        <f>1.2*152.52</f>
-        <v>183.024</v>
+        <f>152.52</f>
+        <v>152.52000000000001</v>
       </c>
       <c r="O45" s="15">
-        <f>1.2*486.83</f>
-        <v>584.19599999999991</v>
-      </c>
-      <c r="W45" t="s">
-        <v>6</v>
-      </c>
-      <c r="X45" s="16">
-        <f>Z37</f>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="16">
-        <f>AB37</f>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="16">
-        <f>AD37</f>
-        <v>100</v>
-      </c>
-      <c r="AA45" s="16">
-        <f>AF37</f>
-        <v>0</v>
-      </c>
-      <c r="AB45" s="16">
-        <f>AH37</f>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="16">
-        <f>AJ37</f>
-        <v>0</v>
+        <f>486.83</f>
+        <v>486.83</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -3257,46 +3101,19 @@
         <v>20000</v>
       </c>
       <c r="L46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M46" s="16">
         <f>100*M45/(M43+43.75)</f>
-        <v>45.536802452265761</v>
+        <v>37.763240104377225</v>
       </c>
       <c r="N46" s="16">
         <f>100*N45/(N43+43)</f>
-        <v>55.597611135075375</v>
+        <v>44.539189347038906</v>
       </c>
       <c r="O46" s="16">
         <f>100*O45/(O43+143)</f>
-        <v>51.710842179057757</v>
-      </c>
-      <c r="W46" t="s">
-        <v>7</v>
-      </c>
-      <c r="X46" s="16">
-        <f>Z38</f>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="16">
-        <f>AB38</f>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="16">
-        <f>AD38</f>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="16">
-        <f>AF38</f>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="16">
-        <f>AH38</f>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="16">
-        <f>AJ38</f>
-        <v>0</v>
+        <v>41.065719660224886</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -3309,37 +3126,10 @@
       <c r="E47" t="s">
         <v>27</v>
       </c>
-      <c r="W47" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47" s="16">
-        <f>Z39</f>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="16">
-        <f>AB39</f>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="16">
-        <f>AD39</f>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="16">
-        <f>AF39</f>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="16">
-        <f>AH39</f>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="16">
-        <f>AJ39</f>
-        <v>100</v>
-      </c>
     </row>
     <row r="48" spans="1:36">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48">
         <f>SUM(C34:C39)+SUM(D34:D39)+SUM(E34:E39)+SUM(L34:L39)+SUM(M34:M39)+SUM(N34:N39)</f>
@@ -3357,7 +3147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:31">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -3374,8 +3164,26 @@
         <f>SUMPRODUCT(C17:C22,C34:C39+L34:L39)+I17*(SUM(C34:C39)+SUM(L34:L39))+SUMPRODUCT(C17:C22,D34:D39+M34:M39)+J17*(SUM(D34:D39)+SUM(M34:M39))+SUMPRODUCT(C17:C22,E34:E39+N34:N39)+K17*(SUM(E34:E39)+SUM(N34:N39))+SUMPRODUCT(D17:D22,F34:F39+O34:O39)+I18*(SUM(F34:F39)+SUM(O34:O39))+SUMPRODUCT(D17:D22,G34:G39+P34:P39)+J18*(SUM(G34:G39)+SUM(P34:P39))+SUMPRODUCT(D17:D22,H34:H39+Q34:Q39)+K18*(SUM(H34:H39)+SUM(Q34:Q39))+SUMPRODUCT(E17:E22,I34:I39+R34:R39)+I19*(SUM(I34:I39)+SUM(R34:R39))+SUMPRODUCT(E17:E22,J34:J39+S34:S39)+J19*(SUM(J34:J39)+SUM(S34:S39))+SUMPRODUCT(E17:E22,K34:K39+T34:T39)+K19*(SUM(K34:K39)+SUM(T34:T39))</f>
         <v>6192283.191309561</v>
       </c>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="Z49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31">
       <c r="B50" t="s">
         <v>22</v>
       </c>
@@ -3392,19 +3200,129 @@
         <f>48*M49</f>
         <v>297229593.18285894</v>
       </c>
-    </row>
-    <row r="52" spans="2:15">
+      <c r="Y50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z50" s="16">
+        <f>Z34</f>
+        <v>3.0488758488177286E-8</v>
+      </c>
+      <c r="AA50" s="16">
+        <f>AB34</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16">
+        <f>AD34</f>
+        <v>75.243894581424172</v>
+      </c>
+      <c r="AC50" s="16">
+        <f>AF34</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="16">
+        <f>AH34</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="16">
+        <f>AJ34</f>
+        <v>24.756105388087075</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31">
+      <c r="Y51" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z51" s="16">
+        <f>Z35</f>
+        <v>5.0036228869120223E-8</v>
+      </c>
+      <c r="AA51" s="16">
+        <f>AB35</f>
+        <v>71.942450315241885</v>
+      </c>
+      <c r="AB51" s="16">
+        <f>AD35</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="16">
+        <f>AF35</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="16">
+        <f>AH35</f>
+        <v>28.057549634721902</v>
+      </c>
+      <c r="AE51" s="16">
+        <f>AJ35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31">
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
       <c r="O52" s="20"/>
-    </row>
-    <row r="53" spans="2:15">
+      <c r="Y52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="16">
+        <f>Z36</f>
+        <v>2.4235677253905108E-7</v>
+      </c>
+      <c r="AA52" s="16">
+        <f>AB36</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="16">
+        <f>AD36</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="16">
+        <f>AF36</f>
+        <v>99.999999757643238</v>
+      </c>
+      <c r="AD52" s="16">
+        <f>AH36</f>
+        <v>1.0150610486257881E-15</v>
+      </c>
+      <c r="AE52" s="16">
+        <f>AJ36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31">
       <c r="L53" s="18"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
       <c r="O53" s="20"/>
-    </row>
-    <row r="54" spans="2:15">
+      <c r="Y53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z53" s="16">
+        <f>Z37</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="16">
+        <f>AB37</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="16">
+        <f>AD37</f>
+        <v>100</v>
+      </c>
+      <c r="AC53" s="16">
+        <f>AF37</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="16">
+        <f>AH37</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="16">
+        <f>AJ37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31">
       <c r="C54" t="s">
         <v>25</v>
       </c>
@@ -3415,10 +3333,37 @@
         <v>27</v>
       </c>
       <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="2:15">
+      <c r="Y54" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z54" s="16">
+        <f>Z38</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="16">
+        <f>AB38</f>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="16">
+        <f>AD38</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="16">
+        <f>AF38</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="16">
+        <f>AH38</f>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="16">
+        <f>AJ38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31">
       <c r="B55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C55">
         <f>SUM(C34:C39)+SUM(D34:D39)+SUM(E34:E39)</f>
@@ -3433,10 +3378,37 @@
         <v>903.79939075154107</v>
       </c>
       <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="2:15">
+      <c r="Y55" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z55" s="16">
+        <f>Z39</f>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="16">
+        <f>AB39</f>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="16">
+        <f>AD39</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="16">
+        <f>AF39</f>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="16">
+        <f>AH39</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="16">
+        <f>AJ39</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31">
       <c r="B56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C56">
         <f>SUM(L34:N39)</f>
@@ -3452,9 +3424,9 @@
       </c>
       <c r="L56" s="18"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:31">
       <c r="B57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <f>SUM(C55:C56)</f>
@@ -3470,9 +3442,9 @@
       </c>
       <c r="L57" s="18"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:31">
       <c r="B58" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C58" s="16">
         <f>IF(C57,C55/C57*100,0)</f>
@@ -3488,10 +3460,10 @@
       </c>
       <c r="L58" s="18"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:31">
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:31">
       <c r="B60" s="16"/>
       <c r="C60" s="16" t="s">
         <v>25</v>
@@ -3506,28 +3478,28 @@
       </c>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:31">
       <c r="B61" s="16"/>
       <c r="C61" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31">
       <c r="B62" s="16" t="s">
         <v>12</v>
       </c>
@@ -3556,7 +3528,7 @@
         <v>18.796747593617699</v>
       </c>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:31">
       <c r="B63" s="16" t="s">
         <v>13</v>
       </c>
@@ -3585,7 +3557,7 @@
         <v>5.7459569338845774E-8</v>
       </c>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:31">
       <c r="B64" s="16" t="s">
         <v>14</v>
       </c>
